--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lamp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H2">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I2">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J2">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.55076233333333</v>
+        <v>76.473381</v>
       </c>
       <c r="N2">
-        <v>100.652287</v>
+        <v>229.420143</v>
       </c>
       <c r="O2">
-        <v>0.03243626870475903</v>
+        <v>0.06809920654405291</v>
       </c>
       <c r="P2">
-        <v>0.03243626870475903</v>
+        <v>0.06809920654405291</v>
       </c>
       <c r="Q2">
-        <v>22.76468432101422</v>
+        <v>11.797701433632</v>
       </c>
       <c r="R2">
-        <v>204.882158889128</v>
+        <v>106.179312902688</v>
       </c>
       <c r="S2">
-        <v>0.01710658609919912</v>
+        <v>0.006340200379697534</v>
       </c>
       <c r="T2">
-        <v>0.01710658609919913</v>
+        <v>0.006340200379697535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H3">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I3">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J3">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>272.503189</v>
       </c>
       <c r="O3">
-        <v>0.08781704742891472</v>
+        <v>0.0808876269928229</v>
       </c>
       <c r="P3">
-        <v>0.08781704742891472</v>
+        <v>0.0808876269928229</v>
       </c>
       <c r="Q3">
-        <v>61.63247014997955</v>
+        <v>14.013203991136</v>
       </c>
       <c r="R3">
-        <v>554.692231349816</v>
+        <v>126.118835920224</v>
       </c>
       <c r="S3">
-        <v>0.0463138931451685</v>
+        <v>0.007530833168239238</v>
       </c>
       <c r="T3">
-        <v>0.0463138931451685</v>
+        <v>0.007530833168239239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H4">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I4">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J4">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>334.082738</v>
+        <v>280.7190703333333</v>
       </c>
       <c r="N4">
-        <v>1002.248214</v>
+        <v>842.157211</v>
       </c>
       <c r="O4">
-        <v>0.3229851337423543</v>
+        <v>0.2499790868600956</v>
       </c>
       <c r="P4">
-        <v>0.3229851337423543</v>
+        <v>0.2499790868600956</v>
       </c>
       <c r="Q4">
-        <v>226.6800376131573</v>
+        <v>43.30709241846399</v>
       </c>
       <c r="R4">
-        <v>2040.120338518416</v>
+        <v>389.763831766176</v>
       </c>
       <c r="S4">
-        <v>0.1703393522052763</v>
+        <v>0.02327365591846578</v>
       </c>
       <c r="T4">
-        <v>0.1703393522052763</v>
+        <v>0.02327365591846579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H5">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I5">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J5">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.666292</v>
+        <v>32.805342</v>
       </c>
       <c r="N5">
-        <v>127.998876</v>
+        <v>98.41602599999999</v>
       </c>
       <c r="O5">
-        <v>0.04124899751004298</v>
+        <v>0.02921301152627596</v>
       </c>
       <c r="P5">
-        <v>0.04124899751004298</v>
+        <v>0.02921301152627596</v>
       </c>
       <c r="Q5">
-        <v>28.94970489428266</v>
+        <v>5.060945721023999</v>
       </c>
       <c r="R5">
-        <v>260.5473440485439</v>
+        <v>45.548511489216</v>
       </c>
       <c r="S5">
-        <v>0.0217543372153552</v>
+        <v>0.002719801832803854</v>
       </c>
       <c r="T5">
-        <v>0.0217543372153552</v>
+        <v>0.002719801832803855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H6">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I6">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J6">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>219.6913653333333</v>
+        <v>205.2761333333333</v>
       </c>
       <c r="N6">
-        <v>659.0740959999999</v>
+        <v>615.8284</v>
       </c>
       <c r="O6">
-        <v>0.2123936287130977</v>
+        <v>0.1827974861269859</v>
       </c>
       <c r="P6">
-        <v>0.2123936287130977</v>
+        <v>0.1827974861269859</v>
       </c>
       <c r="Q6">
-        <v>149.0638135186915</v>
+        <v>31.6683596416</v>
       </c>
       <c r="R6">
-        <v>1341.574321668224</v>
+        <v>285.0152367744</v>
       </c>
       <c r="S6">
-        <v>0.1120144221757806</v>
+        <v>0.01701888685296707</v>
       </c>
       <c r="T6">
-        <v>0.1120144221757806</v>
+        <v>0.01701888685296707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.6785146666666666</v>
+        <v>0.154272</v>
       </c>
       <c r="H7">
-        <v>2.035544</v>
+        <v>0.462816</v>
       </c>
       <c r="I7">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892757</v>
       </c>
       <c r="J7">
-        <v>0.5273906889508921</v>
+        <v>0.09310241192892758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>313.5339353333333</v>
+        <v>436.8618976666667</v>
       </c>
       <c r="N7">
-        <v>940.601806</v>
+        <v>1310.585693</v>
       </c>
       <c r="O7">
-        <v>0.3031189239008312</v>
+        <v>0.3890235819497668</v>
       </c>
       <c r="P7">
-        <v>0.3031189239008312</v>
+        <v>0.3890235819497668</v>
       </c>
       <c r="Q7">
-        <v>212.7373736213848</v>
+        <v>67.395558676832</v>
       </c>
       <c r="R7">
-        <v>1914.636362592464</v>
+        <v>606.560028091488</v>
       </c>
       <c r="S7">
-        <v>0.1598620981101124</v>
+        <v>0.0362190337767541</v>
       </c>
       <c r="T7">
-        <v>0.1598620981101124</v>
+        <v>0.0362190337767541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H8">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I8">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J8">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.55076233333333</v>
+        <v>76.473381</v>
       </c>
       <c r="N8">
-        <v>100.652287</v>
+        <v>229.420143</v>
       </c>
       <c r="O8">
-        <v>0.03243626870475903</v>
+        <v>0.06809920654405291</v>
       </c>
       <c r="P8">
-        <v>0.03243626870475903</v>
+        <v>0.06809920654405291</v>
       </c>
       <c r="Q8">
-        <v>18.88447155563955</v>
+        <v>51.888310618088</v>
       </c>
       <c r="R8">
-        <v>169.960244000756</v>
+        <v>466.994795562792</v>
       </c>
       <c r="S8">
-        <v>0.01419078929665704</v>
+        <v>0.02788528668345744</v>
       </c>
       <c r="T8">
-        <v>0.01419078929665704</v>
+        <v>0.02788528668345744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H9">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I9">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J9">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>272.503189</v>
       </c>
       <c r="O9">
-        <v>0.08781704742891472</v>
+        <v>0.0808876269928229</v>
       </c>
       <c r="P9">
-        <v>0.08781704742891472</v>
+        <v>0.0808876269928229</v>
       </c>
       <c r="Q9">
-        <v>51.12729054523689</v>
+        <v>61.63247014997955</v>
       </c>
       <c r="R9">
-        <v>460.145614907132</v>
+        <v>554.692231349816</v>
       </c>
       <c r="S9">
-        <v>0.0384197463666783</v>
+        <v>0.03312189351839688</v>
       </c>
       <c r="T9">
-        <v>0.0384197463666783</v>
+        <v>0.03312189351839689</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H10">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I10">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J10">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>334.082738</v>
+        <v>280.7190703333333</v>
       </c>
       <c r="N10">
-        <v>1002.248214</v>
+        <v>842.157211</v>
       </c>
       <c r="O10">
-        <v>0.3229851337423543</v>
+        <v>0.2499790868600956</v>
       </c>
       <c r="P10">
-        <v>0.3229851337423543</v>
+        <v>0.2499790868600956</v>
       </c>
       <c r="Q10">
-        <v>188.0427007979813</v>
+        <v>190.4720064341982</v>
       </c>
       <c r="R10">
-        <v>1692.384307181832</v>
+        <v>1714.248057907784</v>
       </c>
       <c r="S10">
-        <v>0.1413052167192667</v>
+        <v>0.1023615230737431</v>
       </c>
       <c r="T10">
-        <v>0.1413052167192667</v>
+        <v>0.1023615230737432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H11">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I11">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J11">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.666292</v>
+        <v>32.805342</v>
       </c>
       <c r="N11">
-        <v>127.998876</v>
+        <v>98.41602599999999</v>
       </c>
       <c r="O11">
-        <v>0.04124899751004298</v>
+        <v>0.02921301152627596</v>
       </c>
       <c r="P11">
-        <v>0.04124899751004298</v>
+        <v>0.02921301152627596</v>
       </c>
       <c r="Q11">
-        <v>24.01526289189867</v>
+        <v>22.25890569201599</v>
       </c>
       <c r="R11">
-        <v>216.137366027088</v>
+        <v>200.330151228144</v>
       </c>
       <c r="S11">
-        <v>0.01804633688576725</v>
+        <v>0.01196215407840889</v>
       </c>
       <c r="T11">
-        <v>0.01804633688576725</v>
+        <v>0.01196215407840889</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H12">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I12">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J12">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>219.6913653333333</v>
+        <v>205.2761333333333</v>
       </c>
       <c r="N12">
-        <v>659.0740959999999</v>
+        <v>615.8284</v>
       </c>
       <c r="O12">
-        <v>0.2123936287130977</v>
+        <v>0.1827974861269859</v>
       </c>
       <c r="P12">
-        <v>0.2123936287130977</v>
+        <v>0.1827974861269859</v>
       </c>
       <c r="Q12">
-        <v>123.6560677351609</v>
+        <v>139.2828671832889</v>
       </c>
       <c r="R12">
-        <v>1112.904609616448</v>
+        <v>1253.5458046496</v>
       </c>
       <c r="S12">
-        <v>0.0929217001022611</v>
+        <v>0.07485197793558562</v>
       </c>
       <c r="T12">
-        <v>0.0929217001022611</v>
+        <v>0.07485197793558562</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5628626666666666</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H13">
-        <v>1.688588</v>
+        <v>2.035544</v>
       </c>
       <c r="I13">
-        <v>0.4374975872170826</v>
+        <v>0.4094803463740599</v>
       </c>
       <c r="J13">
-        <v>0.4374975872170826</v>
+        <v>0.40948034637406</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>313.5339353333333</v>
+        <v>436.8618976666667</v>
       </c>
       <c r="N13">
-        <v>940.601806</v>
+        <v>1310.585693</v>
       </c>
       <c r="O13">
-        <v>0.3031189239008312</v>
+        <v>0.3890235819497668</v>
       </c>
       <c r="P13">
-        <v>0.3031189239008312</v>
+        <v>0.3890235819497668</v>
       </c>
       <c r="Q13">
-        <v>176.4765469322142</v>
+        <v>296.4172048746657</v>
       </c>
       <c r="R13">
-        <v>1588.288922389928</v>
+        <v>2667.754843871992</v>
       </c>
       <c r="S13">
-        <v>0.1326137978464521</v>
+        <v>0.159297511084468</v>
       </c>
       <c r="T13">
-        <v>0.1326137978464521</v>
+        <v>0.159297511084468</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H14">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I14">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J14">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.55076233333333</v>
+        <v>76.473381</v>
       </c>
       <c r="N14">
-        <v>100.652287</v>
+        <v>229.420143</v>
       </c>
       <c r="O14">
-        <v>0.03243626870475903</v>
+        <v>0.06809920654405291</v>
       </c>
       <c r="P14">
-        <v>0.03243626870475903</v>
+        <v>0.06809920654405291</v>
       </c>
       <c r="Q14">
-        <v>1.515588586883666</v>
+        <v>37.295354162144</v>
       </c>
       <c r="R14">
-        <v>13.640297281953</v>
+        <v>335.658187459296</v>
       </c>
       <c r="S14">
-        <v>0.001138893308902862</v>
+        <v>0.02004288885847687</v>
       </c>
       <c r="T14">
-        <v>0.001138893308902862</v>
+        <v>0.02004288885847687</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H15">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I15">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J15">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>272.503189</v>
       </c>
       <c r="O15">
-        <v>0.08781704742891472</v>
+        <v>0.0808876269928229</v>
       </c>
       <c r="P15">
-        <v>0.08781704742891472</v>
+        <v>0.0808876269928229</v>
       </c>
       <c r="Q15">
-        <v>4.103262185565667</v>
+        <v>44.29908730406756</v>
       </c>
       <c r="R15">
-        <v>36.929359670091</v>
+        <v>398.691785736608</v>
       </c>
       <c r="S15">
-        <v>0.003083407917067915</v>
+        <v>0.02380676369253033</v>
       </c>
       <c r="T15">
-        <v>0.003083407917067915</v>
+        <v>0.02380676369253033</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H16">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I16">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J16">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>334.082738</v>
+        <v>280.7190703333333</v>
       </c>
       <c r="N16">
-        <v>1002.248214</v>
+        <v>842.157211</v>
       </c>
       <c r="O16">
-        <v>0.3229851337423543</v>
+        <v>0.2499790868600956</v>
       </c>
       <c r="P16">
-        <v>0.3229851337423543</v>
+        <v>0.2499790868600956</v>
       </c>
       <c r="Q16">
-        <v>15.091519523674</v>
+        <v>136.9040705569102</v>
       </c>
       <c r="R16">
-        <v>135.823675713066</v>
+        <v>1232.136635012192</v>
       </c>
       <c r="S16">
-        <v>0.01134056481781128</v>
+        <v>0.07357358931398562</v>
       </c>
       <c r="T16">
-        <v>0.01134056481781128</v>
+        <v>0.07357358931398562</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H17">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I17">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J17">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.666292</v>
+        <v>32.805342</v>
       </c>
       <c r="N17">
-        <v>127.998876</v>
+        <v>98.41602599999999</v>
       </c>
       <c r="O17">
-        <v>0.04124899751004298</v>
+        <v>0.02921301152627596</v>
       </c>
       <c r="P17">
-        <v>0.04124899751004298</v>
+        <v>0.02921301152627596</v>
       </c>
       <c r="Q17">
-        <v>1.927364408516</v>
+        <v>15.998859110208</v>
       </c>
       <c r="R17">
-        <v>17.346279676644</v>
+        <v>143.989731991872</v>
       </c>
       <c r="S17">
-        <v>0.001448323408920526</v>
+        <v>0.008597943690632995</v>
       </c>
       <c r="T17">
-        <v>0.001448323408920526</v>
+        <v>0.008597943690632995</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.045173</v>
+        <v>0.4876906666666667</v>
       </c>
       <c r="H18">
-        <v>0.135519</v>
+        <v>1.463072</v>
       </c>
       <c r="I18">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="J18">
-        <v>0.03511172383202523</v>
+        <v>0.2943189777917788</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>219.6913653333333</v>
+        <v>205.2761333333333</v>
       </c>
       <c r="N18">
-        <v>659.0740959999999</v>
+        <v>615.8284</v>
       </c>
       <c r="O18">
-        <v>0.2123936287130977</v>
+        <v>0.1827974861269859</v>
       </c>
       <c r="P18">
-        <v>0.2123936287130977</v>
+        <v>0.1827974861269859</v>
       </c>
       <c r="Q18">
-        <v>9.924118046202667</v>
+        <v>100.1112543160889</v>
       </c>
       <c r="R18">
-        <v>89.317062415824</v>
+        <v>901.0012888447999</v>
       </c>
       <c r="S18">
-        <v>0.00745750643505599</v>
+        <v>0.05380076925980137</v>
       </c>
       <c r="T18">
-        <v>0.00745750643505599</v>
+        <v>0.05380076925980137</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4876906666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.463072</v>
+      </c>
+      <c r="I19">
+        <v>0.2943189777917788</v>
+      </c>
+      <c r="J19">
+        <v>0.2943189777917788</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>436.8618976666667</v>
+      </c>
+      <c r="N19">
+        <v>1310.585693</v>
+      </c>
+      <c r="O19">
+        <v>0.3890235819497668</v>
+      </c>
+      <c r="P19">
+        <v>0.3890235819497668</v>
+      </c>
+      <c r="Q19">
+        <v>213.0534701143218</v>
+      </c>
+      <c r="R19">
+        <v>1917.481231028896</v>
+      </c>
+      <c r="S19">
+        <v>0.1144970229763517</v>
+      </c>
+      <c r="T19">
+        <v>0.1144970229763517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.00961</v>
+      </c>
+      <c r="I20">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J20">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>76.473381</v>
+      </c>
+      <c r="N20">
+        <v>229.420143</v>
+      </c>
+      <c r="O20">
+        <v>0.06809920654405291</v>
+      </c>
+      <c r="P20">
+        <v>0.06809920654405291</v>
+      </c>
+      <c r="Q20">
+        <v>25.73609673047</v>
+      </c>
+      <c r="R20">
+        <v>231.62487057423</v>
+      </c>
+      <c r="S20">
+        <v>0.01383083062242106</v>
+      </c>
+      <c r="T20">
+        <v>0.01383083062242106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.00961</v>
+      </c>
+      <c r="I21">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J21">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>90.83439633333334</v>
+      </c>
+      <c r="N21">
+        <v>272.503189</v>
+      </c>
+      <c r="O21">
+        <v>0.0808876269928229</v>
+      </c>
+      <c r="P21">
+        <v>0.0808876269928229</v>
+      </c>
+      <c r="Q21">
+        <v>30.56910496069889</v>
+      </c>
+      <c r="R21">
+        <v>275.12194464629</v>
+      </c>
+      <c r="S21">
+        <v>0.01642813661365644</v>
+      </c>
+      <c r="T21">
+        <v>0.01642813661365644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.00961</v>
+      </c>
+      <c r="I22">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J22">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>280.7190703333333</v>
+      </c>
+      <c r="N22">
+        <v>842.157211</v>
+      </c>
+      <c r="O22">
+        <v>0.2499790868600956</v>
+      </c>
+      <c r="P22">
+        <v>0.2499790868600956</v>
+      </c>
+      <c r="Q22">
+        <v>94.47226019974555</v>
+      </c>
+      <c r="R22">
+        <v>850.2503417977099</v>
+      </c>
+      <c r="S22">
+        <v>0.05077031855390099</v>
+      </c>
+      <c r="T22">
+        <v>0.05077031855390098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.045173</v>
-      </c>
-      <c r="H19">
-        <v>0.135519</v>
-      </c>
-      <c r="I19">
-        <v>0.03511172383202523</v>
-      </c>
-      <c r="J19">
-        <v>0.03511172383202523</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>313.5339353333333</v>
-      </c>
-      <c r="N19">
-        <v>940.601806</v>
-      </c>
-      <c r="O19">
-        <v>0.3031189239008312</v>
-      </c>
-      <c r="P19">
-        <v>0.3031189239008312</v>
-      </c>
-      <c r="Q19">
-        <v>14.16326846081266</v>
-      </c>
-      <c r="R19">
-        <v>127.469416147314</v>
-      </c>
-      <c r="S19">
-        <v>0.01064302794426666</v>
-      </c>
-      <c r="T19">
-        <v>0.01064302794426666</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.00961</v>
+      </c>
+      <c r="I23">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J23">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.805342</v>
+      </c>
+      <c r="N23">
+        <v>98.41602599999999</v>
+      </c>
+      <c r="O23">
+        <v>0.02921301152627596</v>
+      </c>
+      <c r="P23">
+        <v>0.02921301152627596</v>
+      </c>
+      <c r="Q23">
+        <v>11.04020044554</v>
+      </c>
+      <c r="R23">
+        <v>99.36180400985998</v>
+      </c>
+      <c r="S23">
+        <v>0.005933111924430226</v>
+      </c>
+      <c r="T23">
+        <v>0.005933111924430225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.00961</v>
+      </c>
+      <c r="I24">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J24">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>205.2761333333333</v>
+      </c>
+      <c r="N24">
+        <v>615.8284</v>
+      </c>
+      <c r="O24">
+        <v>0.1827974861269859</v>
+      </c>
+      <c r="P24">
+        <v>0.1827974861269859</v>
+      </c>
+      <c r="Q24">
+        <v>69.08294565822222</v>
+      </c>
+      <c r="R24">
+        <v>621.7465109239999</v>
+      </c>
+      <c r="S24">
+        <v>0.03712585207863186</v>
+      </c>
+      <c r="T24">
+        <v>0.03712585207863185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3365366666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.00961</v>
+      </c>
+      <c r="I25">
+        <v>0.2030982639052336</v>
+      </c>
+      <c r="J25">
+        <v>0.2030982639052335</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>436.8618976666667</v>
+      </c>
+      <c r="N25">
+        <v>1310.585693</v>
+      </c>
+      <c r="O25">
+        <v>0.3890235819497668</v>
+      </c>
+      <c r="P25">
+        <v>0.3890235819497668</v>
+      </c>
+      <c r="Q25">
+        <v>147.0200468344144</v>
+      </c>
+      <c r="R25">
+        <v>1323.18042150973</v>
+      </c>
+      <c r="S25">
+        <v>0.07901001411219298</v>
+      </c>
+      <c r="T25">
+        <v>0.07901001411219298</v>
       </c>
     </row>
   </sheetData>
